--- a/biology/Botanique/Rosa_sect._Synstylae/Rosa_sect._Synstylae.xlsx
+++ b/biology/Botanique/Rosa_sect._Synstylae/Rosa_sect._Synstylae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Synstylae
@@ -513,7 +525,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces de rosier, telles que Rosa wichuraiana et Rosa soulieana, ont en commun de présenter une configuration particulière au niveau de leur pistil et de leurs carpelles, ce qui vaut à ces rosiers d'être réunis dans un même groupe.
 Les parties des carpelles comprises entre les stigmates et les ovaires sont soudées entre elles et forment un ensemble ('syn' en grec). Ces parties appelées styles ('colonne' en grec) et constituées en ensemble représentent la première particularité de ces roses aux styles soudés. En effet, à l'inverse des synstylaés, les roses n'appartenant pas à cette section présentent des styles distincts et libres.
@@ -546,7 +560,9 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les rosiers Synstylae sont originaires pour certains de Corée et du Japon, pour d'autres de Turquie et d'Europe
 Rosa multiflora a été vue au Japon dès 1696. Elle orme des grands buissons aux fleurs blanches. Elle possède plusieurs variétés : Rosa multiflora 'Adenochaeta' à grandes fleurs, Rosa multiflora 'Carnea' à fleurs roses, Rosa multiflora 'Platyphylla', la seven sisters rose rapportée du Japon par Sir Charles Greville en 1815
@@ -578,7 +594,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa arvensis Huds, le rosier des champs,
 'Rosa ×beanii (= Rosa anemoneflora)
@@ -591,7 +609,7 @@
 Rosa moschata Herrm., le rosier musqué,
 Rosa mulliganii
 Rosa multiflora Thunb., le rosier multiflore,
-Rosa phoenicia Boiss.,, le rosier de Phénicie,
+Rosa phoenicia Boiss. le rosier de Phénicie,
 Rosa sempervirens, le rosier toujours vert,
 Rosa setigera - Prairie Rose
 Rosa soulieana
@@ -623,7 +641,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosier ne demandant pas de soins particuliers. Attention toutefois, il est extrêmement vigoureux mais avec un floraison non remontante bien que très parfumée. Ces épines, en forme de griffes de chat sont redoutables au cours des nettoyages. Cette liane de plus de 8 mètres est intéressante pour couvrir un vieil arbre et est une protection idéale pour le nichage de certains oiseaux comme le 'Gobe mouche' par exemple.
 </t>
